--- a/resources/labs/0_YarnCalcs.xlsx
+++ b/resources/labs/0_YarnCalcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7248" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7248" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster Configuration" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF004D6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +687,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,6 +738,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -9795,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10006,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="9">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -10025,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
@@ -10177,7 +10184,7 @@
       </c>
       <c r="F28" s="11">
         <f>(WorkerHostRAM*1024)-SUM(F19:F27)</f>
-        <v>111616</v>
+        <v>121856</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -10187,7 +10194,7 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="E29" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -10201,7 +10208,7 @@
       <c r="C30" s="17"/>
       <c r="E30">
         <f>E29*E28</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
         <v>52</v>
@@ -10215,7 +10222,7 @@
       <c r="C31" s="17"/>
       <c r="F31">
         <f>F28</f>
-        <v>111616</v>
+        <v>121856</v>
       </c>
       <c r="G31" t="s">
         <v>52</v>
@@ -10311,8 +10318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10384,7 +10391,7 @@
       <c r="E8" s="25"/>
       <c r="F8">
         <f>HostAvailableVcore</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -10400,7 +10407,7 @@
       <c r="E9" s="25"/>
       <c r="F9">
         <f>HostAvailableMemory</f>
-        <v>111616</v>
+        <v>121856</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -10454,7 +10461,7 @@
       <c r="E15" s="17"/>
       <c r="F15">
         <f>HostAvailableVcore*ClusterHostCount</f>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -10470,7 +10477,7 @@
       <c r="E16" s="17"/>
       <c r="F16">
         <f>(HostAvailableMemory*ClusterHostCount)/1024</f>
-        <v>1090</v>
+        <v>1190</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -10661,7 +10668,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="7">
         <f>FLOOR((ClusterAvailableMemoryGB*1024)/SchedulerMinAllocMb,1)</f>
-        <v>1090</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -10674,7 +10681,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="7">
         <f>FLOOR((ClusterAvailableMemoryGB*1024)/SchedulerMaxAllocMb,1)</f>
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -10685,9 +10692,9 @@
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="7">
+      <c r="F38" s="30">
         <f>IF(SchedulerMinAllocVcore=0,ClusterAvailableVcore,FLOOR(ClusterAvailableVcore/SchedulerMinAllocVcore,1))</f>
-        <v>480</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -10700,7 +10707,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="7">
         <f>FLOOR(ClusterAvailableVcore/SchedulerMaxAllocVcore,1)</f>
-        <v>480</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
@@ -10996,7 +11003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
